--- a/rapportExcel.xlsx
+++ b/rapportExcel.xlsx
@@ -8,22 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanl\OneDrive\Bureau\IFT-3913_qualité\tp\tp3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11FC1796-865B-46B2-B72F-4161154A770E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3FEF0C-81BC-4850-B38B-B3F5D140B59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{82D28E78-B979-4489-BC9F-74488EDAABCA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{82D28E78-B979-4489-BC9F-74488EDAABCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Graphique1" sheetId="2" r:id="rId2"/>
+    <sheet name="Graphique2" sheetId="3" r:id="rId3"/>
+    <sheet name="Graphique3" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$D$1</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$D$2:$D$633</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$D$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$D$2:$D$633</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$B$2:$B$633</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$C$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$C$2:$C$633</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$C$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$C$2:$C$633</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$B$2:$B$633</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$D$2:$D$633</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2017,12 +2020,240 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2060,24 +2291,26 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C85E4A5E-EA6C-436E-8EB8-762BB7B2430B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v> NOCom</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:visibility meanLine="0" meanMarker="0" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
+        <cx:catScaling gapWidth="1.10000002"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
-        <cx:majorGridlines/>
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
@@ -2090,7 +2323,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2128,19 +2361,56 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4F5BF551-F1E5-4467-A902-91E009F012A5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v> NCLOC</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:dataLabels pos="l">
+            <cx:txPr>
+              <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr" rtl="0">
+                  <a:defRPr/>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                </a:endParaRPr>
+              </a:p>
+            </cx:txPr>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+            <cx:separator>, </cx:separator>
+            <cx:dataLabelHidden idx="593"/>
+            <cx:dataLabelHidden idx="596"/>
+            <cx:dataLabelHidden idx="599"/>
+            <cx:dataLabelHidden idx="601"/>
+            <cx:dataLabelHidden idx="602"/>
+            <cx:dataLabelHidden idx="607"/>
+            <cx:dataLabelHidden idx="609"/>
+            <cx:dataLabelHidden idx="612"/>
+            <cx:dataLabelHidden idx="614"/>
+            <cx:dataLabelHidden idx="616"/>
+            <cx:dataLabelHidden idx="619"/>
+            <cx:dataLabelHidden idx="621"/>
+            <cx:dataLabelHidden idx="622"/>
+            <cx:dataLabelHidden idx="625"/>
+            <cx:dataLabelHidden idx="629"/>
+          </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:visibility meanLine="0" meanMarker="0" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
+        <cx:catScaling gapWidth="1.10000002"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
@@ -2149,6 +2419,7 @@
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
+    <cx:legend pos="t" align="ctr" overlay="0"/>
   </cx:chart>
 </cx:chartSpace>
 </file>
@@ -2158,7 +2429,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2196,19 +2467,22 @@
         <cx:series layoutId="boxWhisker" uniqueId="{749993DD-B70D-4A8B-92C0-8FBCFCE4F36D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v> DCP</cx:v>
             </cx:txData>
           </cx:tx>
+          <cx:dataLabels>
+            <cx:visibility seriesName="0" categoryName="0" value="1"/>
+          </cx:dataLabels>
           <cx:dataId val="0"/>
           <cx:layoutPr>
-            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:visibility meanLine="0" meanMarker="0" nonoutliers="0" outliers="1"/>
             <cx:statistics quartileMethod="exclusive"/>
           </cx:layoutPr>
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="1"/>
+        <cx:catScaling gapWidth="1.10000002"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
@@ -2342,7 +2616,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="407">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2353,7 +2627,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" b="1"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2366,11 +2640,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2383,7 +2657,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2399,7 +2673,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="900"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2407,8 +2681,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
@@ -2450,12 +2724,9 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2470,12 +2741,17 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -2485,7 +2761,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -2503,7 +2779,7 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2516,7 +2792,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -2524,7 +2800,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -2549,8 +2825,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2567,15 +2843,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2586,10 +2862,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -2605,14 +2881,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2624,7 +2900,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -2632,17 +2908,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -2651,17 +2926,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+            <a:lumOff val="10000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -2670,17 +2945,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -2689,17 +2963,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -2720,7 +2993,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -2728,7 +3001,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -2742,11 +3015,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2759,7 +3032,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat">
@@ -2776,11 +3049,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1800" b="1" cap="all" spc="150"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -2789,7 +3062,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -2826,8 +3099,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -2850,14 +3123,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="407">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2868,7 +3141,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" b="1"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -2881,11 +3154,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2898,7 +3171,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -2914,7 +3187,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="900"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -2922,8 +3195,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
@@ -2965,12 +3238,9 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2985,12 +3255,17 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -3000,7 +3275,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -3018,7 +3293,7 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3031,7 +3306,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3039,7 +3314,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -3064,8 +3339,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3082,15 +3357,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3101,10 +3376,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3120,14 +3395,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3139,7 +3414,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -3147,17 +3422,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -3166,17 +3440,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+            <a:lumOff val="10000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3185,17 +3459,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3204,17 +3477,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3235,7 +3507,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3243,7 +3515,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3257,11 +3529,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3274,7 +3546,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat">
@@ -3291,11 +3563,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1800" b="1" cap="all" spc="150"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3304,7 +3576,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -3341,8 +3613,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3365,14 +3637,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="407">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3383,7 +3655,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" b="1"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -3396,11 +3668,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3413,7 +3685,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3429,7 +3701,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
+    <cs:defRPr sz="900"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -3437,8 +3709,8 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900"/>
@@ -3480,12 +3752,9 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3500,12 +3769,17 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="phClr"/>
       </a:solidFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
@@ -3515,7 +3789,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -3533,7 +3807,7 @@
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3546,7 +3820,7 @@
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
@@ -3554,7 +3828,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="28575" cap="rnd">
@@ -3579,8 +3853,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3597,15 +3871,15 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3616,10 +3890,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
@@ -3635,14 +3909,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3654,7 +3928,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
@@ -3662,17 +3936,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMajor>
@@ -3681,17 +3954,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln>
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+            <a:lumOff val="10000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -3700,17 +3973,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -3719,17 +3991,16 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -3750,7 +4021,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
   <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
@@ -3758,7 +4029,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -3772,11 +4043,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3789,7 +4060,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat">
@@ -3806,11 +4077,11 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400"/>
+    <cs:defRPr sz="1800" b="1" cap="all" spc="150"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3819,7 +4090,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
@@ -3856,8 +4127,8 @@
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
@@ -3880,27 +4151,50 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{75F4CD8F-09CB-4947-8F9A-ED49A4614BE0}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="83" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1E755CFE-C1DA-4A66-BA6C-E5FA4C1FD4B6}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="83" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9A188E26-8000-47E1-ADDB-440F784D1BF7}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8657422" cy="6279614"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
@@ -3908,11 +4202,13 @@
             <xdr:cNvPr id="2" name="Graphique 1">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7184B8F9-D259-E06A-34F6-BC7D875C2220}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E96388A1-64D8-D48D-7F21-0098CCB58B62}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
-            <xdr:cNvGraphicFramePr/>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
             <a:off x="0" y="0"/>
@@ -3926,70 +4222,9 @@
         </xdr:graphicFrame>
       </mc:Choice>
       <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3977640" y="0"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fr-CA" sz="1100"/>
-                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
-La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="3" name="Graphique 2">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1136BBDC-AC28-50BA-9C96-5C1D3112870B}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -3997,77 +4232,110 @@
             <a:ext cx="0" cy="0"/>
           </xdr:xfrm>
           <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5FDE6B43-AECA-9D83-3818-123A8D10BBC3}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noTextEdit="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="8657422" cy="6279614"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstClr val="white"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="1">
+          <a:solidFill>
+            <a:prstClr val="green"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8657422" cy="6279614"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Graphique 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43D9D69A-92DE-F11E-BDFE-52A10C7232F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
       <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8686800" y="0"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fr-CA" sz="1100"/>
-                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
-La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
-            <xdr:cNvPr id="4" name="Graphique 3">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECE97F75-6ABB-5EC1-1943-4A415035A6DD}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
+            <xdr:cNvPr id="0" name=""/>
             <xdr:cNvGraphicFramePr/>
           </xdr:nvGraphicFramePr>
           <xdr:xfrm>
@@ -4075,54 +4343,184 @@
             <a:ext cx="0" cy="0"/>
           </xdr:xfrm>
           <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77C6D07F-063C-BD2A-C1EF-6171577F3A07}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noTextEdit="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="8657422" cy="6279614"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstClr val="white"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="1">
+          <a:solidFill>
+            <a:prstClr val="green"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8657422" cy="6279614"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Graphique 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C963FFE0-D534-E2DA-503F-AD32E94EB443}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
             <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
-              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
             </a:graphicData>
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
       <mc:Fallback>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="0" name=""/>
-            <xdr:cNvSpPr>
-              <a:spLocks noTextEdit="1"/>
-            </xdr:cNvSpPr>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="3977640" y="2872740"/>
-              <a:ext cx="4572000" cy="2743200"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:prstClr val="white"/>
-            </a:solidFill>
-            <a:ln w="1">
-              <a:solidFill>
-                <a:prstClr val="green"/>
-              </a:solidFill>
-            </a:ln>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="fr-CA" sz="1100"/>
-                <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
-La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
       </mc:Fallback>
     </mc:AlternateContent>
     <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3D1B388-5A6C-7240-7F84-73EA44954D25}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noTextEdit="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="8657422" cy="6279614"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstClr val="white"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="1">
+          <a:solidFill>
+            <a:prstClr val="green"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4424,8 +4822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C9F10E-7996-4A16-ABA1-95A07A8A4C34}">
   <dimension ref="A1:D633"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13295,6 +13693,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/rapportExcel.xlsx
+++ b/rapportExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanl\OneDrive\Bureau\IFT-3913_qualité\tp\tp3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97CCFEE-5ABA-489B-8279-4DB3052B1100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD69DE06-DAB5-411E-B8DF-C1944F7034B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{82D28E78-B979-4489-BC9F-74488EDAABCA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{82D28E78-B979-4489-BC9F-74488EDAABCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="639">
   <si>
     <t>class</t>
   </si>
@@ -1959,6 +1959,15 @@
   </si>
   <si>
     <t>./src/main/java/org/jfree/data/xy/YWithXInterval.java</t>
+  </si>
+  <si>
+    <t>Pearson NOCom-NCLOC</t>
+  </si>
+  <si>
+    <t>Pearson NOCom-DCP</t>
+  </si>
+  <si>
+    <t>Coefficient de correlation:</t>
   </si>
 </sst>
 </file>
@@ -13990,7 +13999,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C2D7C3AC-5806-4B54-8FBC-F2157DAFCE60}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
+    <sheetView zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14078,7 +14087,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04CB64D6-BCC6-A3B4-61F0-AA62B354184C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7946766-EBFD-2FC5-C1FB-DA57D4F941F7}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -14189,7 +14198,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB3D552A-DC1C-4933-4E74-F3D38CE21D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67673CAA-BA91-E501-8A6A-E217CAAD4249}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -14300,7 +14309,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4009897F-58C0-E87F-AE89-385173A9E0CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F1C89E-ADC2-1EAD-7843-1FD95B0A753A}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -14704,15 +14713,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C9F10E-7996-4A16-ABA1-95A07A8A4C34}">
-  <dimension ref="A1:D633"/>
+  <dimension ref="A1:H633"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" activeCellId="1" sqref="D1:D633 B1:B633"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -14726,7 +14735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -14739,8 +14748,11 @@
       <c r="D2">
         <v>65.66</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -14753,8 +14765,14 @@
       <c r="D3">
         <v>58.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>636</v>
+      </c>
+      <c r="H3" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -14767,8 +14785,16 @@
       <c r="D4">
         <v>87.72</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <f>PEARSON(B1:B633,C1:C633)</f>
+        <v>0.71457165869539407</v>
+      </c>
+      <c r="H4">
+        <f>PEARSON(B1:B633,D1:D633)</f>
+        <v>-0.48775299745739364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -14782,7 +14808,7 @@
         <v>83.33</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -14796,7 +14822,7 @@
         <v>49.23</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -14810,7 +14836,7 @@
         <v>50.42</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -14824,7 +14850,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -14838,7 +14864,7 @@
         <v>56.37</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -14852,7 +14878,7 @@
         <v>82.81</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -14866,7 +14892,7 @@
         <v>89.06</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -14880,7 +14906,7 @@
         <v>48.54</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -14894,7 +14920,7 @@
         <v>52.54</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -14908,7 +14934,7 @@
         <v>47.04</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -14922,7 +14948,7 @@
         <v>50.74</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>

--- a/rapportExcel.xlsx
+++ b/rapportExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanl\OneDrive\Bureau\IFT-3913_qualité\tp\tp3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD69DE06-DAB5-411E-B8DF-C1944F7034B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49803C23-206A-44A0-82F0-58DFF62D7451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{82D28E78-B979-4489-BC9F-74488EDAABCA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="861" activeTab="8" xr2:uid="{82D28E78-B979-4489-BC9F-74488EDAABCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,16 +19,37 @@
     <sheet name="Graphique3" sheetId="4" r:id="rId4"/>
     <sheet name="Graphique4" sheetId="5" r:id="rId5"/>
     <sheet name="Graphique5" sheetId="6" r:id="rId6"/>
+    <sheet name="Graphique6" sheetId="7" r:id="rId7"/>
+    <sheet name="Graphique7" sheetId="8" r:id="rId8"/>
+    <sheet name="histogramme_DCP" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$B$2:$B$633</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Feuil1!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Feuil1!$B$2:$B$633</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Feuil1!$B$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Feuil1!$B$2:$B$633</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Feuil1!$B$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Feuil1!$B$2:$B$633</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Feuil1!$B$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Feuil1!$B$2:$B$633</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Feuil1!$B$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Feuil1!$B$2:$B$633</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$C$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Feuil1!$C$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Feuil1!$C$2:$C$633</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">Feuil1!$D$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">Feuil1!$D$2:$D$633</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">Feuil1!$D$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">Feuil1!$D$2:$D$633</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$C$2:$C$633</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$C$2:$C$633</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$D$2:$D$633</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$D$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$D$2:$D$633</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$B$2:$B$633</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Feuil1!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Feuil1!$B$2:$B$633</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -10909,6 +10930,234 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <c:style val="2"/>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1"/>
+        <c:axId val="2"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
@@ -11132,7 +11381,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11170,7 +11419,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{749993DD-B70D-4A8B-92C0-8FBCFCE4F36D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v> DCP</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11204,6 +11453,207 @@
       </cx:plotAreaRegion>
       <cx:axis id="0">
         <cx:catScaling gapWidth="1.10000002"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>NOCom</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>NOCom</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{C9833529-1CC5-4B92-BB45-6E400E06EBA6}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:v> NOCom</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.21</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>NCLOC</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>NCLOC</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{2A18BCDF-6DB0-445F-BD86-DCD3AD92E4F0}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:v> NCLOC</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling/>
+        <cx:majorGridlines/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.25</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>DCP</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" cap="none" spc="20" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>DCP</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="clusteredColumn" uniqueId="{C839821A-0FA5-452B-8058-8AA2D286182B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:v> DCP</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:binning intervalClosed="r"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="0"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
@@ -11377,6 +11827,126 @@
 </file>
 
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -13962,6 +14532,1659 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="369">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" cap="none" spc="20"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="369">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" cap="none" spc="20"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="369">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="110000"/>
+              <a:satMod val="105000"/>
+              <a:tint val="67000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="103000"/>
+              <a:tint val="73000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="105000"/>
+              <a:satMod val="109000"/>
+              <a:tint val="81000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:lumOff val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" cap="none" spc="20"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{75F4CD8F-09CB-4947-8F9A-ED49A4614BE0}">
   <sheetPr/>
@@ -14011,6 +16234,39 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="80" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{56957406-2CB8-41B9-911F-B9BFDD9B4DD7}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="80" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9AF7533A-6D5D-4556-BAA8-8A393C07F128}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="80" workbookViewId="0"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4D5326C2-DB5A-4680-B011-1639D40C80E5}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14071,6 +16327,285 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D40BFED-9C3E-C691-0DF7-07091A09F404}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noTextEdit="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="8657422" cy="6279614"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstClr val="white"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="1">
+          <a:solidFill>
+            <a:prstClr val="green"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8657422" cy="6279614"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Graphique 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DCAADB6-A95A-4740-85ED-87937F2E8DA0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB75A3FF-D094-4E22-A12A-5CFC2B5EB7AC}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noTextEdit="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="8657422" cy="6279614"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstClr val="white"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="1">
+          <a:solidFill>
+            <a:prstClr val="green"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8657422" cy="6279614"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Graphique 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC8D1947-35F3-356B-8975-1F8B98A52909}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86DB32C4-3B98-ABCF-27BF-8338E6E8CB3E}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr>
+          <a:spLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noTextEdit="1"/>
+        </cdr:cNvSpPr>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="0"/>
+          <a:ext cx="8657422" cy="6279614"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:prstClr val="white"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="1">
+          <a:solidFill>
+            <a:prstClr val="green"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" horzOverflow="clip"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="fr-CA" sz="1100"/>
+            <a:t>Ce graphique n’est pas disponible dans votre version d’Excel.
+La modification de cette forme ou l’enregistrement de ce classeur dans un autre format de fichier endommagera le graphique de façon irréparable.</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
@@ -14087,7 +16622,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7946766-EBFD-2FC5-C1FB-DA57D4F941F7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99FB964A-A58B-8C7A-851D-B701A0D88DE4}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -14198,7 +16733,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67673CAA-BA91-E501-8A6A-E217CAAD4249}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9D860B3-DA9A-6C21-C03E-99903B1BFF54}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -14309,7 +16844,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F1C89E-ADC2-1EAD-7843-1FD95B0A753A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A99ADACB-C30E-462F-B162-77839E904B82}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -14411,6 +16946,60 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8657422" cy="6279614"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Graphique 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{552CCA7D-DC76-9487-38AF-10646D143EE5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr>
+              <a:graphicFrameLocks/>
+            </xdr:cNvGraphicFramePr>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+              <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
@@ -14715,8 +17304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C9F10E-7996-4A16-ABA1-95A07A8A4C34}">
   <dimension ref="A1:H633"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/rapportExcel.xlsx
+++ b/rapportExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanl\OneDrive\Bureau\IFT-3913_qualité\tp\tp3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanl\OneDrive\Documents\GitHub\IFT3913_TP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2D9DE8-F54D-4947-93A3-E652873E1B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFE1D24-155B-46F8-B7E6-76AD834EADD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="861" xr2:uid="{82D28E78-B979-4489-BC9F-74488EDAABCA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="861" activeTab="2" xr2:uid="{82D28E78-B979-4489-BC9F-74488EDAABCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,28 +26,16 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Feuil1!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Feuil1!$B$2:$B$633</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Feuil1!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Feuil1!$B$2:$B$633</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Feuil1!$B$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Feuil1!$B$2:$B$633</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Feuil1!$B$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Feuil1!$B$2:$B$633</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Feuil1!$B$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Feuil1!$B$2:$B$633</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Feuil1!$B$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Feuil1!$B$2:$B$633</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Feuil1!$C$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Feuil1!$C$2:$C$633</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Feuil1!$D$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Feuil1!$D$2:$D$633</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$C$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Feuil1!$C$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Feuil1!$C$2:$C$633</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Feuil1!$D$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Feuil1!$D$2:$D$633</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Feuil1!$D$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Feuil1!$D$2:$D$633</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$C$2:$C$633</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$D$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$D$2:$D$633</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$B$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$B$2:$B$633</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$C$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$C$2:$C$633</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$D$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$D$2:$D$633</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Feuil1!$B$1</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Feuil1!$B$2:$B$633</definedName>
   </definedNames>
@@ -2489,8 +2477,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.6737931915528663E-2"/>
-                  <c:y val="5.379630021845299E-2"/>
+                  <c:x val="6.1128493299571034E-2"/>
+                  <c:y val="0.11125518263176132"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -2499,7 +2487,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="65000"/>
@@ -2512,10 +2500,10 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" baseline="0"/>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
                       <a:t>y = 36,047x - 97,992</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1100"/>
+                    <a:endParaRPr lang="en-US" sz="1600"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -2532,7 +2520,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -6405,7 +6393,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -6418,7 +6406,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-CA"/>
+                  <a:rPr lang="fr-CA" sz="1600"/>
                   <a:t>NOCom</a:t>
                 </a:r>
               </a:p>
@@ -6437,7 +6425,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -6522,7 +6510,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -6535,7 +6523,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-CA"/>
+                  <a:rPr lang="fr-CA" sz="1600"/>
                   <a:t>NCLOC</a:t>
                 </a:r>
               </a:p>
@@ -6554,7 +6542,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -6687,7 +6675,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t> NOCom et DCP</a:t>
+              <a:t> NoCom et DCP</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -6824,7 +6812,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:pPr>
-                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="tx1">
                             <a:lumMod val="65000"/>
@@ -6837,10 +6825,10 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="fr-CA" sz="1200" baseline="0"/>
+                      <a:rPr lang="fr-CA" sz="1800" baseline="0"/>
                       <a:t>y = -1,83x + 75,81</a:t>
                     </a:r>
-                    <a:endParaRPr lang="fr-CA" sz="1200"/>
+                    <a:endParaRPr lang="fr-CA" sz="1800"/>
                   </a:p>
                 </c:rich>
               </c:tx>
@@ -6857,7 +6845,7 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                       <a:solidFill>
                         <a:schemeClr val="tx1">
                           <a:lumMod val="65000"/>
@@ -10730,7 +10718,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -10743,8 +10731,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-CA"/>
-                  <a:t>NOCom</a:t>
+                  <a:rPr lang="fr-CA" sz="1800"/>
+                  <a:t>NoCom</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -10762,7 +10750,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -10847,7 +10835,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -10860,7 +10848,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="fr-CA"/>
+                  <a:rPr lang="fr-CA" sz="1600"/>
                   <a:t>DCP</a:t>
                 </a:r>
               </a:p>
@@ -10879,7 +10867,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -11258,9 +11246,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1400"/>
+                  <a:defRPr sz="1800" b="0"/>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:endParaRPr lang="fr-FR" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="75000"/>
@@ -11298,7 +11286,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11336,7 +11324,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4F5BF551-F1E5-4467-A902-91E009F012A5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v> NCLOC</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11346,9 +11334,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1200"/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:endParaRPr lang="fr-FR" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="75000"/>
@@ -11367,10 +11355,10 @@
                 <a:lstStyle/>
                 <a:p>
                   <a:pPr algn="ctr" rtl="0">
-                    <a:defRPr/>
+                    <a:defRPr sz="1800"/>
                   </a:pPr>
                   <a:r>
-                    <a:rPr lang="fr-FR" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:rPr lang="fr-FR" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                       <a:solidFill>
                         <a:sysClr val="windowText" lastClr="000000">
                           <a:lumMod val="75000"/>
@@ -11383,6 +11371,7 @@
                   </a:r>
                 </a:p>
               </cx:txPr>
+              <cx:visibility seriesName="0" categoryName="0" value="1"/>
               <cx:separator>, </cx:separator>
             </cx:dataLabel>
             <cx:dataLabelHidden idx="593"/>
@@ -11396,6 +11385,7 @@
             <cx:dataLabelHidden idx="614"/>
             <cx:dataLabelHidden idx="616"/>
             <cx:dataLabelHidden idx="619"/>
+            <cx:dataLabelHidden idx="620"/>
             <cx:dataLabelHidden idx="621"/>
             <cx:dataLabelHidden idx="622"/>
             <cx:dataLabelHidden idx="625"/>
@@ -11418,7 +11408,26 @@
         <cx:tickLabels/>
       </cx:axis>
     </cx:plotArea>
-    <cx:legend pos="t" align="ctr" overlay="0"/>
+    <cx:legend pos="t" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
   </cx:chart>
 </cx:chartSpace>
 </file>
@@ -11428,7 +11437,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11466,7 +11475,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{749993DD-B70D-4A8B-92C0-8FBCFCE4F36D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v> DCP</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11476,9 +11485,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr algn="ctr" rtl="0">
-                  <a:defRPr sz="1100"/>
+                  <a:defRPr sz="1800"/>
                 </a:pPr>
-                <a:endParaRPr lang="fr-FR" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:endParaRPr lang="fr-FR" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="75000"/>
@@ -11568,11 +11577,47 @@
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -11584,7 +11629,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.21</cx:f>
+        <cx:f>_xlchart.v1.11</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11622,7 +11667,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{2A18BCDF-6DB0-445F-BD86-DCD3AD92E4F0}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.20</cx:f>
+              <cx:f>_xlchart.v1.10</cx:f>
               <cx:v> NCLOC</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11635,11 +11680,47 @@
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -11651,7 +11732,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.13</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -11689,7 +11770,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{C839821A-0FA5-452B-8058-8AA2D286182B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.12</cx:f>
               <cx:v> DCP</cx:v>
             </cx:txData>
           </cx:tx>
@@ -11702,11 +11783,47 @@
       <cx:axis id="0">
         <cx:catScaling gapWidth="0"/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
       <cx:axis id="1">
         <cx:valScaling/>
         <cx:majorGridlines/>
         <cx:tickLabels/>
+        <cx:txPr>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR" sz="1800" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="50000"/>
+                  <a:lumOff val="50000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:txPr>
       </cx:axis>
     </cx:plotArea>
   </cx:chart>
@@ -16247,7 +16364,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{1E755CFE-C1DA-4A66-BA6C-E5FA4C1FD4B6}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="80" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16390,7 +16507,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{900E13FD-4E60-B5A2-0F76-E160A2E97320}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34DD41AD-D3BB-BA87-5556-EB8C00448603}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -16401,7 +16518,7 @@
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="0"/>
-          <a:ext cx="8657422" cy="6279614"/>
+          <a:ext cx="8648700" cy="6276975"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -16435,7 +16552,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657422" cy="6279614"/>
+    <xdr:ext cx="8648700" cy="6276975"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
@@ -16501,7 +16618,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3ED3DB2B-DBBD-FFBA-1651-4D10E16E8028}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7973B2C8-BF5F-CA0F-41AD-45B698A43D7E}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -16512,7 +16629,7 @@
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="0"/>
-          <a:ext cx="8657422" cy="6279614"/>
+          <a:ext cx="8648700" cy="6276975"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -16546,7 +16663,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657422" cy="6279614"/>
+    <xdr:ext cx="8648700" cy="6276975"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
@@ -16612,7 +16729,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DB25CB7-C0B1-C90E-81FE-12896AA55F2E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C35A76D-3532-988E-0A92-21F6592D931E}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -16623,7 +16740,7 @@
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="0"/>
-          <a:ext cx="8657422" cy="6279614"/>
+          <a:ext cx="8648700" cy="6276975"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -16669,7 +16786,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFF3BD87-23F7-BB14-D092-99143615CE30}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C67C17-8930-92F6-04D4-1289B4B49B1A}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -16714,7 +16831,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657422" cy="6279614"/>
+    <xdr:ext cx="8648700" cy="6276975"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
@@ -16780,7 +16897,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9999626-C3EC-E42F-5E08-46CAE92C3BBA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1D3D775-1F84-F8BE-2B8C-89459BAEA48B}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -16791,7 +16908,7 @@
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="0"/>
-          <a:ext cx="8657422" cy="6279614"/>
+          <a:ext cx="8648700" cy="6276975"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -16825,7 +16942,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657422" cy="6279614"/>
+    <xdr:ext cx="8648700" cy="6276975"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
@@ -16891,7 +17008,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{633C157E-3923-17CF-7486-6CDA72534BB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73533B5E-0C0E-68FF-FD9E-62555E2456A8}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -16902,7 +17019,7 @@
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="0"/>
-          <a:ext cx="8657422" cy="6279614"/>
+          <a:ext cx="8648700" cy="6276975"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -16936,7 +17053,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657422" cy="6279614"/>
+    <xdr:ext cx="8648700" cy="6276975"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -16969,7 +17086,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657422" cy="6279614"/>
+    <xdr:ext cx="8648700" cy="6276975"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -17002,7 +17119,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657422" cy="6279614"/>
+    <xdr:ext cx="8648700" cy="6276975"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
@@ -17351,7 +17468,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7C9F10E-7996-4A16-ABA1-95A07A8A4C34}">
   <dimension ref="A1:P633"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>

--- a/rapportExcel.xlsx
+++ b/rapportExcel.xlsx
@@ -8,22 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jeanl\OneDrive\Documents\GitHub\IFT3913_TP3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4D23AD9-7CA5-4507-AD88-4B83BA3CECE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE052F9-C280-4F1B-A4CF-E146A326A1CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="903" firstSheet="3" activeTab="10" xr2:uid="{82D28E78-B979-4489-BC9F-74488EDAABCA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="903" xr2:uid="{82D28E78-B979-4489-BC9F-74488EDAABCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
-    <sheet name="Graphique1" sheetId="2" r:id="rId2"/>
-    <sheet name="Graphique2" sheetId="3" r:id="rId3"/>
-    <sheet name="Graphique3" sheetId="4" r:id="rId4"/>
-    <sheet name="Graphique4" sheetId="5" r:id="rId5"/>
-    <sheet name="Graphique5" sheetId="6" r:id="rId6"/>
-    <sheet name="Graphique6" sheetId="7" r:id="rId7"/>
-    <sheet name="Graphique7" sheetId="8" r:id="rId8"/>
-    <sheet name="histogramme_DCP" sheetId="9" r:id="rId9"/>
-    <sheet name="CourbeRegression_filtre" sheetId="10" r:id="rId10"/>
-    <sheet name="CourbeRegression_filter2" sheetId="11" r:id="rId11"/>
+    <sheet name="boite_NoCom" sheetId="2" r:id="rId2"/>
+    <sheet name="boite_Ncloc" sheetId="3" r:id="rId3"/>
+    <sheet name="boite_Dcp" sheetId="4" r:id="rId4"/>
+    <sheet name="courbe_nofilter" sheetId="5" r:id="rId5"/>
+    <sheet name="courbe2_nofilter" sheetId="6" r:id="rId6"/>
+    <sheet name="histo_ncocom" sheetId="7" r:id="rId7"/>
+    <sheet name="histo_ncloc" sheetId="8" r:id="rId8"/>
+    <sheet name="histo_DCP" sheetId="9" r:id="rId9"/>
+    <sheet name="Courbe_filtre" sheetId="10" r:id="rId10"/>
+    <sheet name="Courbe_filter2" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Feuil1!$J$12:$L$644</definedName>
@@ -33,12 +33,12 @@
     <definedName name="_xlchart.v1.11" hidden="1">Feuil1!$C$2:$C$633</definedName>
     <definedName name="_xlchart.v1.12" hidden="1">Feuil1!$D$1</definedName>
     <definedName name="_xlchart.v1.13" hidden="1">Feuil1!$D$2:$D$633</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$B$1</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$B$2:$B$633</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$C$1</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$C$2:$C$633</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$D$1</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$D$2:$D$633</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Feuil1!$C$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Feuil1!$C$2:$C$633</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Feuil1!$D$1</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Feuil1!$D$2:$D$633</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Feuil1!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Feuil1!$B$2:$B$633</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">Feuil1!$B$1</definedName>
     <definedName name="_xlchart.v1.9" hidden="1">Feuil1!$B$2:$B$633</definedName>
   </definedNames>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="649">
   <si>
     <t>class</t>
   </si>
@@ -2050,7 +2050,10 @@
     <t>Coefficient (rs) NoCom_DCP_filtre:</t>
   </si>
   <si>
-    <t>Sans les extremes:</t>
+    <t>Données sans les extremes:</t>
+  </si>
+  <si>
+    <t>rank des données sans extreme</t>
   </si>
 </sst>
 </file>
@@ -2058,7 +2061,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -2107,7 +2110,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -19006,7 +19009,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -19044,7 +19047,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C85E4A5E-EA6C-436E-8EB8-762BB7B2430B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v> NoCom</cx:v>
             </cx:txData>
           </cx:tx>
@@ -19139,7 +19142,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -19177,7 +19180,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{4F5BF551-F1E5-4467-A902-91E009F012A5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v> NCLOC</cx:v>
             </cx:txData>
           </cx:tx>
@@ -19312,7 +19315,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -19350,7 +19353,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{749993DD-B70D-4A8B-92C0-8FBCFCE4F36D}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v> DCP</cx:v>
             </cx:txData>
           </cx:tx>
@@ -19436,7 +19439,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -19474,7 +19477,7 @@
         <cx:series layoutId="clusteredColumn" uniqueId="{C9833529-1CC5-4B92-BB45-6E400E06EBA6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.8</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v> NoCom</cx:v>
             </cx:txData>
           </cx:tx>
@@ -25358,7 +25361,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{848A425E-9507-45D6-91F3-37DD25D673A8}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="83" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="83" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -25523,7 +25526,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A2C95AB-13A9-37EB-78C0-91D096E9A89D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D95999F9-1898-0C5C-6A4D-218238D4D06F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -25634,7 +25637,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D662542-5E6C-9985-370F-938E596F218A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A38CE3C-BBA0-38FA-9C50-4D738738C8EA}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -25745,7 +25748,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{048121F5-529C-FC11-DC20-1678A19C111B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0F25BC8-7294-EE4F-B7F0-2E0149992F42}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -25823,7 +25826,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657422" cy="6279614"/>
+    <xdr:ext cx="8665308" cy="6291385"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Graphique 1">
@@ -25868,7 +25871,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94780978-C543-E526-0683-C9D6653D46B3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1477CEE3-DDDA-3101-FE68-AB6B04DFEDE0}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -25979,7 +25982,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D2C5154-E8F1-99B3-C150-7886977FC805}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E418DCEA-A2B1-227C-7FEB-0A518050734F}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -26090,7 +26093,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC26CE31-F16E-72CC-B4B5-98A432308662}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F1652FF-6588-A571-1E40-90C000981B39}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -26551,8 +26554,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:P644"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26892,6 +26895,9 @@
       </c>
       <c r="J11" t="s">
         <v>647</v>
+      </c>
+      <c r="N11" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
